--- a/WebApplication/InstrumentStore.API/wwwroot/newFile.xlsx
+++ b/WebApplication/InstrumentStore.API/wwwroot/newFile.xlsx
@@ -26,7 +26,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Пилы</t>
+  </si>
+  <si>
+    <t>Молотки</t>
+  </si>
+  <si>
+    <t>Отвёртки</t>
+  </si>
   <si>
     <t>Шуруповёрты</t>
   </si>
@@ -127,33 +136,51 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:strRef>
-              <c:f>'Для Продажи по категориям'!$A$1</c:f>
+              <c:f>'Для Продажи по категориям'!$A$1:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Пилы</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Молотки</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Отвёртки</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Шуруповёрты</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Для Продажи по категориям'!$B$1</c:f>
+              <c:f>'Для Продажи по категориям'!$B$1:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>640</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2550</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2C3D-4B7F-92EB-8151CF5B5846}"/>
+              <c16:uniqueId val="{00000000-18B4-4D43-B18E-999E8DE41577}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -166,11 +193,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="315955296"/>
-        <c:axId val="307453368"/>
+        <c:axId val="348174368"/>
+        <c:axId val="346061008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="315955296"/>
+        <c:axId val="348174368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -195,10 +222,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="307453368"/>
+        <c:crossAx val="346061008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -206,7 +234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="307453368"/>
+        <c:axId val="346061008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -241,7 +269,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="315955296"/>
+        <c:crossAx val="348174368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -554,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -565,7 +593,31 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>640</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2550</v>
       </c>
     </row>
   </sheetData>

--- a/WebApplication/InstrumentStore.API/wwwroot/newFile.xlsx
+++ b/WebApplication/InstrumentStore.API/wwwroot/newFile.xlsx
@@ -1,54 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MySpace\WebApplication\InstrumentStore.API\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E16D6934-C991-4105-84D3-365AC88C1755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14256" windowHeight="10140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74A6AC22-5575-4D6E-AC82-7C0DC7199249}"/>
   </bookViews>
   <sheets>
-    <sheet name="Продажи по категориям" sheetId="3" r:id="rId1"/>
-    <sheet name="Для Продажи по категориям" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId3"/>
+    <sheet name="Склад" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+  <si>
+    <t>Товар</t>
+  </si>
+  <si>
+    <t>Остаток на складе</t>
+  </si>
+  <si>
+    <t>Проданно за отчётный период</t>
+  </si>
+  <si>
+    <t>Шуруповёрты</t>
+  </si>
+  <si>
+    <t>Дрель-шуруповерт Makita аккумулятор G-серия 18 В, 13 мм, 42/24 Нм (2x1,5Ач, з/у) DF488D002</t>
+  </si>
+  <si>
+    <t>Аккумуляторная дрель-шуруповерт Bosch Easydrill 18V-40 06039D8005</t>
+  </si>
   <si>
     <t>Пилы</t>
   </si>
   <si>
+    <t>qqq</t>
+  </si>
+  <si>
     <t>Молотки</t>
   </si>
   <si>
     <t>Отвёртки</t>
-  </si>
-  <si>
-    <t>Шуруповёрты</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -93,232 +121,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>ЗАРАБОТОК ПО КАТЕГОРИЯМ ЗА 0 МЕСЯЦЕВ</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Для Продажи по категориям'!$A$1:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Пилы</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Молотки</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Отвёртки</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Шуруповёрты</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Для Продажи по категориям'!$B$1:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2550</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-18B4-4D43-B18E-999E8DE41577}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="348174368"/>
-        <c:axId val="346061008"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="348174368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Категории</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346061008"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="346061008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Заработок (</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>BYN)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348174368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9281809" cy="6055468"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -330,39 +132,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -395,9 +197,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -430,6 +249,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -491,13 +327,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -506,6 +335,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -570,69 +406,120 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129270CF-9EB5-4682-A8D5-1AE0B6975E8F}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>99</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>98</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2550</v>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/WebApplication/InstrumentStore.API/wwwroot/newFile.xlsx
+++ b/WebApplication/InstrumentStore.API/wwwroot/newFile.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MySpace\WebApplication\InstrumentStore.API\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E16D6934-C991-4105-84D3-365AC88C1755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E598018-4745-42AF-8345-F2709E4F117E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74A6AC22-5575-4D6E-AC82-7C0DC7199249}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{33F1893B-D728-495B-BE06-F28E1589F29E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Склад" sheetId="1" r:id="rId1"/>
+    <sheet name="Продажи по категориям" sheetId="2" r:id="rId1"/>
+    <sheet name="Для Продажи по категориям" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,36 +37,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Товар</t>
-  </si>
-  <si>
-    <t>Остаток на складе</t>
-  </si>
-  <si>
-    <t>Проданно за отчётный период</t>
+    <t>Молотки</t>
   </si>
   <si>
     <t>Шуруповёрты</t>
   </si>
   <si>
-    <t>Дрель-шуруповерт Makita аккумулятор G-серия 18 В, 13 мм, 42/24 Нм (2x1,5Ач, з/у) DF488D002</t>
-  </si>
-  <si>
-    <t>Аккумуляторная дрель-шуруповерт Bosch Easydrill 18V-40 06039D8005</t>
-  </si>
-  <si>
     <t>Пилы</t>
-  </si>
-  <si>
-    <t>qqq</t>
-  </si>
-  <si>
-    <t>Молотки</t>
-  </si>
-  <si>
-    <t>Отвёртки</t>
   </si>
 </sst>
 </file>
@@ -119,6 +99,236 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>ЗАРАБОТОК ПО КАТЕГОРИЯМ ЗА 672 МЕСЯЦЕВ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Для Продажи по категориям'!$A$1:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Молотки</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Шуруповёрты</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Пилы</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Для Продажи по категориям'!$B$1:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>133320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9805-46CB-BB84-EC7A696D4E4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1396859327"/>
+        <c:axId val="1396875167"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1396859327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Категории</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1396875167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1396875167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Заработок (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>BYN)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1396859327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9BD1439C-DBF1-41DB-AE3F-AB30017754BC}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="146" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9309709" cy="6080342"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A900C4AB-A2AD-9FCC-2FA5-57D834B0D311}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,86 +647,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129270CF-9EB5-4682-A8D5-1AE0B6975E8F}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D304E39-7EE4-4617-99F6-FC6AE086E620}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1">
+        <v>133320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2">
+        <v>5962</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>99</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>98</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
+      <c r="B3">
+        <v>2784</v>
       </c>
     </row>
   </sheetData>

--- a/WebApplication/InstrumentStore.API/wwwroot/newFile.xlsx
+++ b/WebApplication/InstrumentStore.API/wwwroot/newFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MySpace\WebApplication\InstrumentStore.API\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E598018-4745-42AF-8345-F2709E4F117E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CFBAD5A-002C-4689-85DD-730A780D2818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{33F1893B-D728-495B-BE06-F28E1589F29E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1693640C-E18F-483A-A19C-BB42CFC42589}"/>
   </bookViews>
   <sheets>
     <sheet name="Продажи по категориям" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Молотки</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Пилы</t>
+  </si>
+  <si>
+    <t>Уровни</t>
   </si>
 </sst>
 </file>
@@ -126,7 +129,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>ЗАРАБОТОК ПО КАТЕГОРИЯМ ЗА 672 МЕСЯЦЕВ</a:t>
+              <a:t>ЗАРАБОТОК ПО КАТЕГОРИЯМ ЗА 673 МЕСЯЦЕВ</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -146,9 +149,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Для Продажи по категориям'!$A$1:$A$3</c:f>
+              <c:f>'Для Продажи по категориям'!$A$1:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Молотки</c:v>
                 </c:pt>
@@ -158,30 +161,36 @@
                 <c:pt idx="2">
                   <c:v>Пилы</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>Уровни</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Для Продажи по категориям'!$B$1:$B$3</c:f>
+              <c:f>'Для Продажи по категориям'!$B$1:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>133320</c:v>
+                  <c:v>138875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5962</c:v>
+                  <c:v>7270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2784</c:v>
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9805-46CB-BB84-EC7A696D4E4B}"/>
+              <c16:uniqueId val="{00000000-4777-4A94-B189-7F9DC90EBB45}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -194,11 +203,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1396859327"/>
-        <c:axId val="1396875167"/>
+        <c:axId val="1103125423"/>
+        <c:axId val="1103130223"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1396859327"/>
+        <c:axId val="1103125423"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -226,7 +235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1396875167"/>
+        <c:crossAx val="1103130223"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -234,7 +243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1396875167"/>
+        <c:axId val="1103130223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -268,7 +277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1396859327"/>
+        <c:crossAx val="1103125423"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -288,7 +297,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9BD1439C-DBF1-41DB-AE3F-AB30017754BC}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BC143C90-E2AD-4835-80BD-9DA75BBB4899}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" workbookViewId="0" zoomToFit="1"/>
@@ -308,7 +317,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A900C4AB-A2AD-9FCC-2FA5-57D834B0D311}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D48F223-09F9-8747-365E-E9E05E5CAE1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -647,8 +656,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D304E39-7EE4-4617-99F6-FC6AE086E620}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F48B2FF-8B6F-426A-B31C-238598D88E5A}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -659,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>133320</v>
+        <v>138875</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -667,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5962</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -675,7 +684,15 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2784</v>
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/WebApplication/InstrumentStore.API/wwwroot/newFile.xlsx
+++ b/WebApplication/InstrumentStore.API/wwwroot/newFile.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14256" windowHeight="10140"/>
   </bookViews>
   <sheets>
-    <sheet name="Склад" sheetId="1" r:id="rId1"/>
+    <sheet name="Товары по популярности в сезоне" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,78 +24,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Категория</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Сезон</t>
   </si>
   <si>
     <t>Товар</t>
   </si>
   <si>
-    <t>Остаток на складе</t>
-  </si>
-  <si>
-    <t>Проданно за отчётный период</t>
-  </si>
-  <si>
-    <t>Шлифмашины</t>
-  </si>
-  <si>
-    <t>AEG Шлифмашина 193мм</t>
-  </si>
-  <si>
-    <t>Einhell Шлифмашина 211мм</t>
-  </si>
-  <si>
-    <t>Einhell Шлифмашина 154мм</t>
+    <t>Колличество заказов</t>
+  </si>
+  <si>
+    <t>Зима</t>
+  </si>
+  <si>
+    <t>Весна</t>
   </si>
   <si>
     <t>Metabo Шлифмашина 170мм</t>
   </si>
   <si>
-    <t>Фены строительные</t>
+    <t>DeWalt Термофен 1404Вт</t>
+  </si>
+  <si>
+    <t>Einhell Термофен 517Вт</t>
+  </si>
+  <si>
+    <t>Bosch Лобзик 674Вт</t>
   </si>
   <si>
     <t>Hitachi Термофен 948Вт</t>
   </si>
   <si>
-    <t>Einhell Термофен 517Вт</t>
-  </si>
-  <si>
-    <t>DeWalt Термофен 1404Вт</t>
-  </si>
-  <si>
-    <t>Шуруповёрты</t>
-  </si>
-  <si>
-    <t>Einhell Шуруповёрт 60Нм (15В)</t>
-  </si>
-  <si>
-    <t>Перфораторы</t>
-  </si>
-  <si>
-    <t>Ryobi Перфоратор 7Дж</t>
-  </si>
-  <si>
-    <t>Фрезеры</t>
-  </si>
-  <si>
-    <t>AEG Фрезер 1647Вт</t>
-  </si>
-  <si>
-    <t>Лобзики</t>
-  </si>
-  <si>
-    <t>Пылесосы строительные</t>
-  </si>
-  <si>
-    <t>Болгарки</t>
-  </si>
-  <si>
-    <t>Пилы дисковые</t>
-  </si>
-  <si>
-    <t>Дрели</t>
+    <t>Лето</t>
+  </si>
+  <si>
+    <t>Осень</t>
   </si>
 </sst>
 </file>
@@ -414,13 +378,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,168 +399,63 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>52</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>52</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>11</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>48</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>37</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>84</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>58</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
